--- a/docs/DB/내비서_기능코드정의서.xlsx
+++ b/docs/DB/내비서_기능코드정의서.xlsx
@@ -1,66 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlawn\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7221B4E5-E07A-4F82-9B50-A2500157BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild=""/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{805F09F1-BD61-458A-A67B-FDCA23435B12}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>요구사항명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>요구사항 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>업무그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요청목적(선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>*일반적으로는 메뉴그룹별, 화면 메뉴별로 요구사항 ID를 정의함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>*요구사항의 수정, 추가, 삭제 사항을 상세히 기록하고, 요구사항 수정은 항상 프로젝트 변경관리 프로세스에 의하여 진행 / 수정 내용 앞에는 날짜를 기록함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -70,256 +52,195 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(요구사항 Owner)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요구사항 정의서 (Requirment Definition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Template by 쓰루(https://blog.naver.com/sunhoskm, email:sunhoskm@naver.com)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SQL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FRAME_NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초기화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원유무 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원의 비밀번호와 아이디 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * 
 FROM USER_info 
 WHERE ID = '사용자_ID' AND PASSWORD = '사용자_PASSWORD';</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로그인 화면_ID/Passwd 인증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원가입화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원 정보를 입력한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원가입화면 - 아이디, 비밀번호, 이름, 전화번호, 생년월일 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO USER_info (ID, PASSWORD, NAME, PHONE, BIRTHDAY)
 VALUES ('사용자_ID', '사용자_PASSWORD', '사용자_이름', '사용자_전화번호', 'YYYY-MM-DD');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 찾기 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이디 찾기 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이디 찾기 화면 - 이름과 비밀번호를 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 찾기 화면 - 이름과 비밀번호를 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원의 이름과 비밀번호로 아이디 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원의 이름과 비밀번호로 비밀번호 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT ID 
 FROM USER_info 
 WHERE NAME = '사용자_이름' AND PASSWORD = '사용자_비밀번호';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT PASSWORD 
 FROM USER_info 
 WHERE NAME = '사용자_이름' AND PASSWORD = '사용자_비밀번호';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_3-2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>REQ_210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_3-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>찾은 아이디 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>찾은 비밀번호 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">비밀번호 확인 화면 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">아이디 확인 화면 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이디 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>메인화면_즐겨찾기화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원의 즐겨찾기로 저장되어있는 장소의 정보를 가져온다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>즐겨찾기 정보를 가져온다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_5-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총 주행거리 확인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원의 총 주행거리 데이터를 가져온다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주행거리 데이터를 가져온다</t>
@@ -329,15 +250,12 @@
 FROM USER_info u
 JOIN USER_HISTORY h ON u.USER_CODE = h.USER_CODE
 GROUP BY u.USER_CODE, u.NAME, u.ID;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_5-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>최근에 갔던 장소 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT h.DEPARTURE, h.DESTINATION
@@ -345,309 +263,1313 @@
 JOIN USER_HISTORY h ON u.USER_CODE = h.USER_CODE
 ORDER BY h.DATE DESC
 LIMIT 5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원이 최근에 방문했던 장소의 이름과 주소를 5개 가져온다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 방문했던 장소의 이름과 주소 가져온다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_5-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAVI_NO_5-0-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>즐겨찾기 추가 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>REQ_320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원의 즐겨찾기 장소추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT u.USER_CODE, u.NAME, u.ID, 
        c.HOME, c.COMPANY, c.AREA_1, c.AREA_2, c.AREA_3, c.AREA_4, c.AREA_5
 FROM USER_info u
 JOIN user_custom_info c ON u.USER_CODE = c.USER_CODE;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TMAP API를 통해 위치 검색을 통해 위치정보를 가져와서 user_custom_info에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ID FROM user_info WHERE NAME = %s AND USER_TEL = %s AND BIRTHDAY = %s</t>
+  </si>
+  <si>
+    <t>SELECT * 
+FROM USER_info 
+WHERE ID = 'id' AND PASSWORD = 'password'</t>
+  </si>
+  <si>
+    <t>SELECT ID FROM user_info WHERE NAME = 'name' AND USER_TEL = 'user_tel' AND BIRTHDAY = 'birthday'</t>
+  </si>
+  <si>
+    <t>회원의 이름과 전화번호, 생일로 아이디 조회</t>
+  </si>
+  <si>
+    <t>SELECT password
+FROM USER_info 
+WHERE NAME = '사용자_이름' AND PASSWORD = '사용자_비밀번호';</t>
+  </si>
+  <si>
+    <t>SELECT password
+FROM USER_info 
+WHERE NAME = '사용자_이름' AND ID = 'id' AND USER_TEL = 'user_tel'</t>
+  </si>
+  <si>
+    <t>INSERT INTO user_info (id, password, name, user_tel, birthday)</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO user_info (id, password, name, user_tel, birthday)</t>
+    </r>
+  </si>
+  <si>
+    <t>VALUES (%s, %s, %s, %s, %s)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>INSERT INTO USER_info (ID, PASSWORD, NAME, PHONE, BIRTHDAY)
+VALUES ('사용자_ID', '사용자_PASSWORD', '사용자_이름', '사용자_전화번호', 'YYYY-MM-DD');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>INSERT INTO USER_info (ID, PASSWORD, NAME, PHONE, BIRTHDAY)
+VALUES ('사용자_ID', '사용자_PASSWORD', '사용자_이름', '사용자_전화번호', 'YYYY-MM-DD');</t>
+    </r>
+  </si>
+  <si>
+    <t>작업진행유무</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="41">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF808080"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0" tint="-0.499980"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFC00000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0" tint="-0.499980"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF6AAB73"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0" tint="-0.499980"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF6AAB73"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF6AAB73"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF6AAB73"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.049990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -947,455 +1869,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D716BE41-C520-48C5-B3A2-1F5EDA2F1182}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="H6:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" style="9" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="9" width="15.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="10" width="10.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="17.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="10" width="8.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="10" width="6.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="1" width="17.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="1" width="85.25499725" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="1" width="12.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="16384" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="17.250000">
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+    <row r="2" spans="1:10" ht="13.500000" hidden="1" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="40.500000">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H3" s="80" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+      <c r="I3" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H4" s="81" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="27.000000">
+      <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H5" s="82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="36.000000">
+      <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D6" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="H6" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.000000">
+      <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C7" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="G7" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="36.000000">
+      <c r="A8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G8" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="H8" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="40.500000">
+      <c r="A9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="54.000000">
+      <c r="A10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="G10" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="87"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="67.500000">
+      <c r="A11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="54.000000">
+      <c r="A12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="112" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G12" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="67.500000">
+      <c r="A13" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="80" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="112" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="G13" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H13" s="82" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1403,9 +2355,11 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H24" s="86"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1413,9 +2367,11 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1423,9 +2379,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H26" s="86"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1433,9 +2391,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1443,9 +2403,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H28" s="86"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1453,9 +2415,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1463,9 +2427,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1473,9 +2439,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1483,9 +2451,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1493,9 +2463,11 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1503,9 +2475,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1513,70 +2487,36 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="4"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>